--- a/team_results/hifk/xlsx_hifk_1_played_games_data.xlsx
+++ b/team_results/hifk/xlsx_hifk_1_played_games_data.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>360</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="n">
         <v>362</v>

--- a/team_results/hifk/xlsx_hifk_1_played_games_data.xlsx
+++ b/team_results/hifk/xlsx_hifk_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>14</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>171</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
         <v>172</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>212</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
         <v>217</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>233</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
         <v>237</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>360</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>362</v>
@@ -1997,6 +1997,74 @@
       <c r="H46" t="inlineStr">
         <is>
           <t>tappara</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>399</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>saipa</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>409</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>kalpa</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>hifk</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>kalpa</t>
         </is>
       </c>
     </row>
